--- a/modele/baie.xlsx
+++ b/modele/baie.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983E65D8-C0C3-4938-9793-0E0262C17DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30663958-F854-483D-B02E-CE01AB8F8682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" activeTab="7" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="80" r:id="rId1"/>
@@ -2775,7 +2775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59653419-7FBF-4871-B150-A87FDB3964E3}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -22167,8 +22167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C174291-2B4C-4A62-9933-CCD07460BAA5}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22688,8 +22688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A251F312-E583-4693-A321-64EAAAADD78A}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36195,8 +36195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F670D4A-7C8E-400B-8BCA-32A23A067AEA}">
   <dimension ref="A1:G1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/modele/baie.xlsx
+++ b/modele/baie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\project\action-21\reno-audit\modele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30663958-F854-483D-B02E-CE01AB8F8682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAFBACA-F79D-4BCE-AF49-75A28B70E519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" activeTab="7" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="829" activeTab="13" xr2:uid="{BF4EE783-D743-4B41-B65A-54CFF4809DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="modele" sheetId="80" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6844" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6856" uniqueCount="380">
   <si>
     <t>id</t>
   </si>
@@ -2342,8 +2342,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{F516DED3-C302-4260-83EC-DBC3762C3D91}" name="omb" displayName="omb" ref="A1:I61" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I61" xr:uid="{F516DED3-C302-4260-83EC-DBC3762C3D91}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{F516DED3-C302-4260-83EC-DBC3762C3D91}" name="omb" displayName="omb" ref="A1:I65" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I65" xr:uid="{F516DED3-C302-4260-83EC-DBC3762C3D91}"/>
   <tableColumns count="9">
     <tableColumn id="10" xr3:uid="{BDB7B165-E350-40E5-9629-04CDA972567E}" name="type_masque_lointain" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{309908F2-98E6-48F6-B2B2-4DE78F697101}" name="secteur" dataDxfId="7"/>
@@ -23093,10 +23093,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BCF5A8-6472-4D37-BEA6-B5345A067985}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I48" sqref="A47:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24356,10 +24356,10 @@
         <v>311</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E46" s="8">
         <v>15</v>
@@ -24368,13 +24368,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="8">
-        <v>202.5</v>
+        <v>247.5</v>
       </c>
       <c r="H46" s="8">
         <v>7.5</v>
       </c>
       <c r="I46" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -24382,10 +24382,10 @@
         <v>311</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D47" s="8">
         <v>15</v>
@@ -24394,16 +24394,16 @@
         <v>30</v>
       </c>
       <c r="F47" s="8">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G47" s="8">
-        <v>202.5</v>
+        <v>247.5</v>
       </c>
       <c r="H47" s="8">
         <v>22.5</v>
       </c>
       <c r="I47" s="8">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -24411,10 +24411,10 @@
         <v>311</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D48" s="8">
         <v>30</v>
@@ -24423,16 +24423,16 @@
         <v>60</v>
       </c>
       <c r="F48" s="8">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="G48" s="8">
-        <v>202.5</v>
+        <v>247.5</v>
       </c>
       <c r="H48" s="8">
         <v>45</v>
       </c>
       <c r="I48" s="8">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -24440,25 +24440,25 @@
         <v>311</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D49" s="8">
         <v>60</v>
       </c>
       <c r="F49" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G49" s="8">
-        <v>202.5</v>
+        <v>247.5</v>
       </c>
       <c r="H49" s="8">
         <v>60</v>
       </c>
       <c r="I49" s="8">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -24466,7 +24466,7 @@
         <v>311</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>298</v>
@@ -24478,13 +24478,13 @@
         <v>0</v>
       </c>
       <c r="G50" s="8">
-        <v>247.5</v>
+        <v>202.5</v>
       </c>
       <c r="H50" s="8">
         <v>7.5</v>
       </c>
       <c r="I50" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -24492,7 +24492,7 @@
         <v>311</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>298</v>
@@ -24504,16 +24504,16 @@
         <v>30</v>
       </c>
       <c r="F51" s="8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G51" s="8">
-        <v>247.5</v>
+        <v>202.5</v>
       </c>
       <c r="H51" s="8">
         <v>22.5</v>
       </c>
       <c r="I51" s="8">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -24521,7 +24521,7 @@
         <v>311</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>298</v>
@@ -24533,16 +24533,16 @@
         <v>60</v>
       </c>
       <c r="F52" s="8">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G52" s="8">
-        <v>247.5</v>
+        <v>202.5</v>
       </c>
       <c r="H52" s="8">
         <v>45</v>
       </c>
       <c r="I52" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -24550,7 +24550,7 @@
         <v>311</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>298</v>
@@ -24559,16 +24559,16 @@
         <v>60</v>
       </c>
       <c r="F53" s="8">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G53" s="8">
-        <v>247.5</v>
+        <v>202.5</v>
       </c>
       <c r="H53" s="8">
         <v>60</v>
       </c>
       <c r="I53" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -24576,7 +24576,7 @@
         <v>311</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>298</v>
@@ -24588,13 +24588,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="8">
-        <v>292.5</v>
+        <v>247.5</v>
       </c>
       <c r="H54" s="8">
         <v>7.5</v>
       </c>
       <c r="I54" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -24602,7 +24602,7 @@
         <v>311</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>298</v>
@@ -24614,16 +24614,16 @@
         <v>30</v>
       </c>
       <c r="F55" s="8">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G55" s="8">
-        <v>292.5</v>
+        <v>247.5</v>
       </c>
       <c r="H55" s="8">
         <v>22.5</v>
       </c>
       <c r="I55" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -24631,7 +24631,7 @@
         <v>311</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>298</v>
@@ -24643,16 +24643,16 @@
         <v>60</v>
       </c>
       <c r="F56" s="8">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G56" s="8">
-        <v>292.5</v>
+        <v>247.5</v>
       </c>
       <c r="H56" s="8">
         <v>45</v>
       </c>
       <c r="I56" s="8">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -24660,7 +24660,7 @@
         <v>311</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>298</v>
@@ -24669,16 +24669,16 @@
         <v>60</v>
       </c>
       <c r="F57" s="8">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G57" s="8">
-        <v>292.5</v>
+        <v>247.5</v>
       </c>
       <c r="H57" s="8">
         <v>60</v>
       </c>
       <c r="I57" s="8">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -24686,7 +24686,7 @@
         <v>311</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>298</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="8">
-        <v>337.5</v>
+        <v>292.5</v>
       </c>
       <c r="H58" s="8">
         <v>7.5</v>
@@ -24712,7 +24712,7 @@
         <v>311</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>298</v>
@@ -24727,7 +24727,7 @@
         <v>5</v>
       </c>
       <c r="G59" s="8">
-        <v>337.5</v>
+        <v>292.5</v>
       </c>
       <c r="H59" s="8">
         <v>22.5</v>
@@ -24741,7 +24741,7 @@
         <v>311</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>298</v>
@@ -24756,7 +24756,7 @@
         <v>17</v>
       </c>
       <c r="G60" s="8">
-        <v>337.5</v>
+        <v>292.5</v>
       </c>
       <c r="H60" s="8">
         <v>45</v>
@@ -24770,7 +24770,7 @@
         <v>311</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>298</v>
@@ -24782,12 +24782,122 @@
         <v>25</v>
       </c>
       <c r="G61" s="8">
-        <v>337.5</v>
+        <v>292.5</v>
       </c>
       <c r="H61" s="8">
         <v>60</v>
       </c>
       <c r="I61" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E62" s="8">
+        <v>15</v>
+      </c>
+      <c r="F62" s="8">
+        <v>0</v>
+      </c>
+      <c r="G62" s="8">
+        <v>337.5</v>
+      </c>
+      <c r="H62" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="I62" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D63" s="8">
+        <v>15</v>
+      </c>
+      <c r="E63" s="8">
+        <v>30</v>
+      </c>
+      <c r="F63" s="8">
+        <v>5</v>
+      </c>
+      <c r="G63" s="8">
+        <v>337.5</v>
+      </c>
+      <c r="H63" s="8">
+        <v>22.5</v>
+      </c>
+      <c r="I63" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D64" s="8">
+        <v>30</v>
+      </c>
+      <c r="E64" s="8">
+        <v>60</v>
+      </c>
+      <c r="F64" s="8">
+        <v>17</v>
+      </c>
+      <c r="G64" s="8">
+        <v>337.5</v>
+      </c>
+      <c r="H64" s="8">
+        <v>45</v>
+      </c>
+      <c r="I64" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D65" s="8">
+        <v>60</v>
+      </c>
+      <c r="F65" s="8">
+        <v>25</v>
+      </c>
+      <c r="G65" s="8">
+        <v>337.5</v>
+      </c>
+      <c r="H65" s="8">
+        <v>60</v>
+      </c>
+      <c r="I65" s="8">
         <v>20</v>
       </c>
     </row>
@@ -36195,7 +36305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F670D4A-7C8E-400B-8BCA-32A23A067AEA}">
   <dimension ref="A1:G1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
